--- a/LADOT_landuse_data_inventory.xlsx
+++ b/LADOT_landuse_data_inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/RSG/LADOT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/RSG/LADOT/ladot_analysis_dataprep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A344A-FFB9-EA49-9617-AD35EAD3F799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35207B4A-8C34-BD45-9795-BA424782FB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1040" windowWidth="29040" windowHeight="17440" xr2:uid="{A1B46236-0CAD-9C44-997A-2FE453E8CC8B}"/>
+    <workbookView xWindow="4740" yWindow="1100" windowWidth="29040" windowHeight="17440" xr2:uid="{A1B46236-0CAD-9C44-997A-2FE453E8CC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="182">
   <si>
     <t>Table</t>
   </si>
@@ -553,6 +553,30 @@
   </si>
   <si>
     <t>residential, commercial, industrial designation</t>
+  </si>
+  <si>
+    <t>Census Data</t>
+  </si>
+  <si>
+    <t>FIPS</t>
+  </si>
+  <si>
+    <t>census_data.shp</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>households</t>
+  </si>
+  <si>
+    <t>total population</t>
+  </si>
+  <si>
+    <t>Population and household counts by Census block group</t>
+  </si>
+  <si>
+    <t>total housing units</t>
   </si>
 </sst>
 </file>
@@ -919,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EF69E7-E1D0-2F42-91E2-4C172A3E719F}">
-  <dimension ref="B2:J74"/>
+  <dimension ref="B2:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,7 +954,7 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
+    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
@@ -1557,7 +1581,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I65" s="2" t="s">
         <v>134</v>
       </c>
@@ -1565,7 +1589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I66" s="2" t="s">
         <v>136</v>
       </c>
@@ -1573,7 +1597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I67" s="2" t="s">
         <v>138</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I68" s="2" t="s">
         <v>140</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I69" s="2" t="s">
         <v>142</v>
       </c>
@@ -1597,7 +1621,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I70" s="2" t="s">
         <v>144</v>
       </c>
@@ -1605,7 +1629,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I71" s="2" t="s">
         <v>146</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I72" s="2" t="s">
         <v>148</v>
       </c>
@@ -1621,7 +1645,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I73" s="2" t="s">
         <v>150</v>
       </c>
@@ -1629,12 +1653,49 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I74" s="2" t="s">
         <v>152</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75">
+        <v>6425</v>
+      </c>
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
